--- a/Income/ALXN_inc.xlsx
+++ b/Income/ALXN_inc.xlsx
@@ -2105,10 +2105,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.8809</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.8671</v>
@@ -2234,10 +2232,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0914</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1043</v>
@@ -2363,10 +2359,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0811</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.094</v>
@@ -2492,10 +2486,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1088</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0996</v>
@@ -2621,10 +2613,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.456</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.4775</v>
@@ -2750,10 +2740,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>3079799900.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3185000000.0</v>
@@ -3641,10 +3629,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.5251</v>
@@ -3770,10 +3756,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.4931</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.4951</v>
